--- a/ResultadoEleicoesDistritos/ÉVORA_REGUENGOS DE MONSARAZ.xlsx
+++ b/ResultadoEleicoesDistritos/ÉVORA_REGUENGOS DE MONSARAZ.xlsx
@@ -597,25 +597,25 @@
         <v>2643</v>
       </c>
       <c r="H2" t="n">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="I2" t="n">
-        <v>230</v>
+        <v>293</v>
       </c>
       <c r="J2" t="n">
-        <v>1113</v>
+        <v>1099</v>
       </c>
       <c r="K2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L2" t="n">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="M2" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N2" t="n">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -624,37 +624,37 @@
         <v>4</v>
       </c>
       <c r="Q2" t="n">
+        <v>2</v>
+      </c>
+      <c r="R2" t="n">
+        <v>14</v>
+      </c>
+      <c r="S2" t="n">
+        <v>147</v>
+      </c>
+      <c r="T2" t="n">
+        <v>182</v>
+      </c>
+      <c r="U2" t="n">
+        <v>17</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1719</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1649</v>
+      </c>
+      <c r="Y2" t="n">
         <v>3</v>
-      </c>
-      <c r="R2" t="n">
-        <v>16</v>
-      </c>
-      <c r="S2" t="n">
-        <v>118</v>
-      </c>
-      <c r="T2" t="n">
-        <v>195</v>
-      </c>
-      <c r="U2" t="n">
-        <v>7</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1688</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1715</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>2</v>
       </c>
       <c r="Z2" t="n">
         <v>26</v>
       </c>
       <c r="AA2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
